--- a/REGULAR/OJT/MONTENEGRO, HELEN.xlsx
+++ b/REGULAR/OJT/MONTENEGRO, HELEN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="240">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1641,7 +1641,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1684,7 +1684,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1748,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1808,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +1874,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1937,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2035,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2094,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2159,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2202,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2277,7 +2277,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2463,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2529,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2587,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2653,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2709,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2784,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2827,7 +2827,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2893,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2949,7 +2949,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3047,7 +3047,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3110,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3559,7 +3559,7 @@
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A346" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K356" sqref="K356"/>
+      <selection pane="bottomLeft" activeCell="I357" sqref="I357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3734,7 +3734,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>38.75</v>
+        <v>37.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11456,19 +11456,22 @@
       <c r="A357" s="40">
         <v>45108</v>
       </c>
-      <c r="B357" s="20"/>
+      <c r="B357" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="C357" s="13"/>
       <c r="D357" s="39"/>
       <c r="E357" s="9"/>
       <c r="F357" s="20"/>
-      <c r="G357" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H357" s="39"/>
+      <c r="G357" s="13"/>
+      <c r="H357" s="39">
+        <v>1</v>
+      </c>
       <c r="I357" s="9"/>
       <c r="J357" s="11"/>
-      <c r="K357" s="20"/>
+      <c r="K357" s="52">
+        <v>45114</v>
+      </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">

--- a/REGULAR/OJT/MONTENEGRO, HELEN.xlsx
+++ b/REGULAR/OJT/MONTENEGRO, HELEN.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="240">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1641,7 +1641,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1684,7 +1684,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1748,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1808,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +1874,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1937,7 +1937,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2035,7 +2035,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2094,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2159,7 +2159,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2202,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2277,7 +2277,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2463,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2529,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2587,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2653,7 +2653,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2709,7 +2709,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +2784,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2827,7 +2827,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2893,7 +2893,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2949,7 +2949,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3047,7 +3047,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3110,7 +3110,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3176,7 +3176,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K367" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K368" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3554,12 +3554,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K367"/>
+  <dimension ref="A2:K368"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A346" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="I357" sqref="I357"/>
+      <selection pane="bottomLeft" activeCell="J358" sqref="J358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3724,7 +3724,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>128.91099999999994</v>
+        <v>131.41099999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3734,7 +3734,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>37.75</v>
+        <v>38</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11413,13 +11413,15 @@
       <c r="B355" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C355" s="13"/>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D355" s="39"/>
       <c r="E355" s="9"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G355" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H355" s="39">
         <v>2</v>
@@ -11459,7 +11461,9 @@
       <c r="B357" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="C357" s="13"/>
+      <c r="C357" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D357" s="39"/>
       <c r="E357" s="9"/>
       <c r="F357" s="20"/>
@@ -11474,10 +11478,10 @@
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A358" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B358" s="20"/>
+      <c r="A358" s="40"/>
+      <c r="B358" s="20" t="s">
+        <v>223</v>
+      </c>
       <c r="C358" s="13"/>
       <c r="D358" s="39"/>
       <c r="E358" s="9"/>
@@ -11486,14 +11490,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H358" s="39"/>
+      <c r="H358" s="39">
+        <v>1</v>
+      </c>
       <c r="I358" s="9"/>
       <c r="J358" s="11"/>
-      <c r="K358" s="20"/>
+      <c r="K358" s="52">
+        <v>45135</v>
+      </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -11511,7 +11519,7 @@
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -11529,7 +11537,7 @@
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -11547,7 +11555,7 @@
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -11565,7 +11573,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -11583,7 +11591,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -11601,7 +11609,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -11618,7 +11626,9 @@
       <c r="K365" s="20"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="40"/>
+      <c r="A366" s="40">
+        <v>45352</v>
+      </c>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
       <c r="D366" s="39"/>
@@ -11634,20 +11644,36 @@
       <c r="K366" s="20"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="41"/>
-      <c r="B367" s="15"/>
-      <c r="C367" s="42"/>
-      <c r="D367" s="43"/>
-      <c r="E367" s="51"/>
-      <c r="F367" s="15"/>
-      <c r="G367" s="42" t="str">
+      <c r="A367" s="40"/>
+      <c r="B367" s="20"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="39"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="20"/>
+      <c r="G367" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H367" s="43"/>
-      <c r="I367" s="51"/>
-      <c r="J367" s="12"/>
-      <c r="K367" s="15"/>
+      <c r="H367" s="39"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="20"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="41"/>
+      <c r="B368" s="15"/>
+      <c r="C368" s="42"/>
+      <c r="D368" s="43"/>
+      <c r="E368" s="51"/>
+      <c r="F368" s="15"/>
+      <c r="G368" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H368" s="43"/>
+      <c r="I368" s="51"/>
+      <c r="J368" s="12"/>
+      <c r="K368" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
